--- a/Trabalho 2/Meta 1/Resultados.xlsx
+++ b/Trabalho 2/Meta 1/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IIA/Trabalho 2/Meta 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F785B431-F6CB-984C-87F1-0D52A7556778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DAB48-5E49-462F-965F-E90A7FC4C982}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44380" yWindow="2640" windowWidth="27620" windowHeight="17560" activeTab="2" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -313,13 +310,82 @@
   </si>
   <si>
     <t>0670404PM_HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1,2,4,5,6,3</t>
+  </si>
+  <si>
+    <t>0930212p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1,6,5,3,4,2</t>
+  </si>
+  <si>
+    <t>0930658p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1,2,4,5,3,6</t>
+  </si>
+  <si>
+    <t>0930903p.m._RandomSearchOptimisercsv.</t>
+  </si>
+  <si>
+    <t>2,1,4,3,5,6</t>
+  </si>
+  <si>
+    <t>0931019p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0931129p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0931218p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1,2,4,3,6,5</t>
+  </si>
+  <si>
+    <t>0932133p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>é possível que exista uma seed que gere logo a melhor solução e há seeds que devem chegar mais depressa à solução. Se o número de tentativas for infinito, eventualmente chega-se à melhor solução</t>
+  </si>
+  <si>
+    <t>6,5,3,4,2,1</t>
+  </si>
+  <si>
+    <t>0933349p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1,2,6,5,3,4</t>
+  </si>
+  <si>
+    <t>1,2,4,3,5,6</t>
+  </si>
+  <si>
+    <t>0933441p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0933549p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Esta seed chega facilmente à melhor solução.</t>
+  </si>
+  <si>
+    <t>2,1,6,5,3,4</t>
+  </si>
+  <si>
+    <t>0935006p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Mesmo assim, o trepa colinas pode demorar muitas iterações a encontrar a solução</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +397,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,21 +747,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EE4A98-5085-D942-B5FB-10483C66A0A2}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="11" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,7 +772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -752,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -778,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -804,7 +876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -830,7 +902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -859,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -885,7 +957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -911,7 +983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -937,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -963,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1289,27 +1361,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1321,15 +1393,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49132A7-82A8-6E4C-B1CF-2A3832962810}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:L28"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1366,17 +1449,192 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6">
+        <v>51</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10">
+        <v>604</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -1413,17 +1671,144 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>2020</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24">
+        <v>91</v>
+      </c>
+      <c r="J24">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28">
+        <v>964</v>
+      </c>
+      <c r="J28">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1432,17 +1817,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519F7E59-2954-164D-AA32-F49AE80C1764}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="11" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1583,7 +1968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1609,7 +1994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +2020,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +2049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1690,7 +2075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +2101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1745,12 +2130,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1816,7 +2201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +2227,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1868,7 +2253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +2279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1920,7 +2305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +2334,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1975,7 +2360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2040,12 +2425,12 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L30"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2082,17 +2467,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -2129,12 +2514,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2152,18 +2537,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2200,17 +2585,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -2247,12 +2632,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>

--- a/Trabalho 2/Meta 1/Resultados.xlsx
+++ b/Trabalho 2/Meta 1/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DAB48-5E49-462F-965F-E90A7FC4C982}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D03A48-8C0F-4F79-8A3E-A82733363EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="156">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -379,6 +379,129 @@
   </si>
   <si>
     <t>Mesmo assim, o trepa colinas pode demorar muitas iterações a encontrar a solução</t>
+  </si>
+  <si>
+    <t>2,3,1,4,5,7,8,9,6</t>
+  </si>
+  <si>
+    <t>3,1,4,6,5,7,8,9,2</t>
+  </si>
+  <si>
+    <t>0964043p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0964539p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 6 4 1 2 9 8 7</t>
+  </si>
+  <si>
+    <t>0965204p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 9 5 7 8 2 4 1 3</t>
+  </si>
+  <si>
+    <t>0965419p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 5 6 1 4 2 9 7 8</t>
+  </si>
+  <si>
+    <t>0965537p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 2 3 7 8 6 9 5</t>
+  </si>
+  <si>
+    <t>0965707p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 7 8 9 5 6 3 1 2</t>
+  </si>
+  <si>
+    <t>0965902p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 8 7 5 2 1 4</t>
+  </si>
+  <si>
+    <t>0970016p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 5 4 9 8 7 6 3</t>
+  </si>
+  <si>
+    <t>0971754p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 9 8 7 5 4 1 2</t>
+  </si>
+  <si>
+    <t>0972147p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #11</t>
+  </si>
+  <si>
+    <t>1 2 4 5 9 8 7 6 3</t>
+  </si>
+  <si>
+    <t>0972525p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #12</t>
+  </si>
+  <si>
+    <t>3 6 7 8 9 5 4 2 1</t>
+  </si>
+  <si>
+    <t>0972935p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0973254p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 2 3 6 7 8 9 5</t>
+  </si>
+  <si>
+    <t>0973516p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 5 4 1 2 9 8 7</t>
+  </si>
+  <si>
+    <t>0973615p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 3 5 9 8 7 6</t>
+  </si>
+  <si>
+    <t>0973712p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 2 4 9 8 7 5 6</t>
+  </si>
+  <si>
+    <t>0973834p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 9 8 7 6 3 5 4 2</t>
+  </si>
+  <si>
+    <t>0974151p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 4 5 3 6 7 8 9</t>
+  </si>
+  <si>
+    <t>0974353p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0974550p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>0974819p.m._HillClimberOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -747,21 +870,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EE4A98-5085-D942-B5FB-10483C66A0A2}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -798,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -824,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -876,7 +999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -902,7 +1025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -931,7 +1054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -957,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -983,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1035,7 +1158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1231,7 +1354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1283,7 +1406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1361,27 +1484,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1395,24 +1518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49132A7-82A8-6E4C-B1CF-2A3832962810}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1624,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1650,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1605,7 +1728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1846,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1817,17 +1940,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519F7E59-2954-164D-AA32-F49AE80C1764}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1838,7 +1961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1890,7 +2013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +2039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +2065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +2091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +2117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2020,7 +2143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2224,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2130,12 +2253,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2201,7 +2324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2305,7 +2428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2334,7 +2457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2360,7 +2483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2389,7 +2512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2422,15 +2545,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35482D3B-BB67-AC4D-83E5-7AF77605C8BE}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="19.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2441,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2467,17 +2593,319 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11">
+        <v>512</v>
+      </c>
+      <c r="J11">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>572</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12">
+        <v>410</v>
+      </c>
+      <c r="J12">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>485</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13">
+        <v>830</v>
+      </c>
+      <c r="J13">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14">
+        <v>976</v>
+      </c>
+      <c r="J14">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15">
+        <v>8711</v>
+      </c>
+      <c r="J15">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -2514,17 +2942,242 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25">
+        <v>80</v>
+      </c>
+      <c r="J25">
+        <v>67</v>
+      </c>
+      <c r="K25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26">
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1937</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27">
+        <v>88</v>
+      </c>
+      <c r="J27">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>94201938</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28">
+        <v>80</v>
+      </c>
+      <c r="J28">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29">
+        <v>3124</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>73</v>
+      </c>
+      <c r="K29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>777</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30">
+        <v>126</v>
+      </c>
+      <c r="J30">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31">
+        <v>89</v>
+      </c>
+      <c r="J31">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32">
+        <v>731</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32">
+        <v>27</v>
+      </c>
+      <c r="J32">
+        <v>63</v>
+      </c>
+      <c r="K32" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2537,18 +3190,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="33.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2559,7 +3212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2585,17 +3238,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -2632,12 +3285,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>

--- a/Trabalho 2/Meta 1/Resultados.xlsx
+++ b/Trabalho 2/Meta 1/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D03A48-8C0F-4F79-8A3E-A82733363EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAA90CC-C492-49DC-8A3C-BC3CAB1A4ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -502,6 +502,153 @@
   </si>
   <si>
     <t>0974819p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 12 15 2 13 17 1 10 8 11 6 7 5 9 14 16 4</t>
+  </si>
+  <si>
+    <t>1053316p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 4 13 11 15 17 14 10 2 1 5 9 16 8 12 7 6</t>
+  </si>
+  <si>
+    <t>1053624p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>15 6 12 5 7 13 14 4 2 17 1 10 16 3 9 11 8</t>
+  </si>
+  <si>
+    <t>1053810p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 6 16 11 17 2 15 14 1 13 5 12 4 10 8 9</t>
+  </si>
+  <si>
+    <t>1053918p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 15 1 4 13 7 11 8 12 9 16 17 14 10 5 2 6</t>
+  </si>
+  <si>
+    <t>1054034p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 1 17 15 12 16 8 11 5 2 10 14 9 7 6 13 4</t>
+  </si>
+  <si>
+    <t>1054215p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>16 9 12 11 8 7 6 15 1 17 10 14 13 5 2 4 3</t>
+  </si>
+  <si>
+    <t>1054346p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>10 3 9 12 13 5 16 2 17 14 4 1 15 6 11 8 7</t>
+  </si>
+  <si>
+    <t>1054557p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 12 6 7 5 8 11 9 16 14 17 10 1 2 13 4 15</t>
+  </si>
+  <si>
+    <t>1054842p.m._RandomSearchOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 10 17 15 13 16 5 7 8 6 3 2 14 11 9 12</t>
+  </si>
+  <si>
+    <t>1055201p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 8 11 7 13 9 16 12 5 14 4 10 1 2 15 17</t>
+  </si>
+  <si>
+    <t>1055324p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 3 6 5 7 12 10 1 15 17 14 2 13 16 11 8 9</t>
+  </si>
+  <si>
+    <t>1055444p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>O melhor resultado está a ser encontrado perto da 100ª iteracao. Vamos aumentar o numero de iterações.</t>
+  </si>
+  <si>
+    <t>4 13 16 9 12 5 6 3 10 1 17 15 2 14 11 8 7</t>
+  </si>
+  <si>
+    <t>1055746p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 17 15 2 14 4 8 7 6 3 5 13 16 12 9 11</t>
+  </si>
+  <si>
+    <t>1055936p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 13 14 2 17 15 1 10 4 16 9 11 8 7 5 12</t>
+  </si>
+  <si>
+    <t>1060120p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 6 7 8 11 9 12 5 13 16 4 10 1 17 14 2 15</t>
+  </si>
+  <si>
+    <t>1060304p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 4 10 1 15 17 2 14 13 16 9 5 6 7 8 11 12</t>
+  </si>
+  <si>
+    <t>1060441p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 10 1 15 17 2 14 4 13 16 11 8 7 6 5 9 12</t>
+  </si>
+  <si>
+    <t>1060610p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 2 14 4 13 16 12 9 5 6 7 8 11 17 15 1 10</t>
+  </si>
+  <si>
+    <t>1060746p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 15 17 14 2 10 3 6 7 8 11 9 12 16 4 13 5</t>
+  </si>
+  <si>
+    <t>1060938p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 10 17 15 2 14 4 13 16 12 9 5 3 6 7 8 11</t>
+  </si>
+  <si>
+    <t>1061233p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #13</t>
+  </si>
+  <si>
+    <t>Teste #14</t>
+  </si>
+  <si>
+    <t>1 15 17 2 10 3 6 5 13 4 14 16 12 9 11 8 7</t>
+  </si>
+  <si>
+    <t>1061520p.m._HillClimberOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 8 11 12 9 16 5 6 13 4 14 2 17 15 1 10</t>
+  </si>
+  <si>
+    <t>1061833p.m._HillClimberOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -2547,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35482D3B-BB67-AC4D-83E5-7AF77605C8BE}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3184,19 +3331,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91D61-F5E8-A647-82E8-F0EDF9A7AD79}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="19.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="35.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.3984375" customWidth="1"/>
     <col min="11" max="11" width="33.09765625" customWidth="1"/>
   </cols>
@@ -3242,11 +3389,235 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>153</v>
+      </c>
+      <c r="K5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>731</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>153</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1042020</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>167</v>
+      </c>
+      <c r="K7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>1740</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8">
+        <v>860</v>
+      </c>
+      <c r="J8">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>1471</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9">
+        <v>909</v>
+      </c>
+      <c r="J9">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>731</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10">
+        <v>638</v>
+      </c>
+      <c r="J10">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>1275595</v>
+      </c>
+      <c r="G11">
+        <v>5000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11">
+        <v>2977</v>
+      </c>
+      <c r="J11">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>731</v>
+      </c>
+      <c r="G12">
+        <v>5000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>3277</v>
+      </c>
+      <c r="J12">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -3289,13 +3660,371 @@
       <c r="A24" t="s">
         <v>3</v>
       </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24">
+        <v>87</v>
+      </c>
+      <c r="J24">
+        <v>123</v>
+      </c>
+      <c r="K24" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25">
+        <v>88</v>
+      </c>
+      <c r="J25">
+        <v>117</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>324</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26">
+        <v>97</v>
+      </c>
+      <c r="J26">
+        <v>123</v>
+      </c>
+      <c r="K26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27">
+        <v>927</v>
+      </c>
+      <c r="J27">
+        <v>105</v>
+      </c>
+      <c r="K27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <v>927</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28">
+        <v>934</v>
+      </c>
+      <c r="J28">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>934</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29">
+        <v>759</v>
+      </c>
+      <c r="J29">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>1000</v>
+      </c>
+      <c r="E30">
+        <v>759</v>
+      </c>
+      <c r="G30">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30">
+        <v>833</v>
+      </c>
+      <c r="J30">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>2500</v>
+      </c>
+      <c r="E31">
+        <v>833</v>
+      </c>
+      <c r="G31">
+        <v>2500</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31">
+        <v>780</v>
+      </c>
+      <c r="J31">
+        <v>91</v>
+      </c>
+      <c r="K31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>2500</v>
+      </c>
+      <c r="E32">
+        <v>780</v>
+      </c>
+      <c r="G32">
+        <v>2500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32">
+        <v>587</v>
+      </c>
+      <c r="J32">
+        <v>85</v>
+      </c>
+      <c r="K32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>2500</v>
+      </c>
+      <c r="E33">
+        <v>587</v>
+      </c>
+      <c r="G33">
+        <v>2500</v>
+      </c>
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33">
+        <v>1368</v>
+      </c>
+      <c r="J33">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>2500</v>
+      </c>
+      <c r="E34">
+        <v>1368</v>
+      </c>
+      <c r="G34">
+        <v>2500</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34">
+        <v>386</v>
+      </c>
+      <c r="J34">
+        <v>85</v>
+      </c>
+      <c r="K34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35">
+        <v>5000</v>
+      </c>
+      <c r="E35">
+        <v>368</v>
+      </c>
+      <c r="G35">
+        <v>5000</v>
+      </c>
+      <c r="H35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35">
+        <v>2329</v>
+      </c>
+      <c r="J35">
+        <v>85</v>
+      </c>
+      <c r="K35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+      <c r="E36">
+        <v>2329</v>
+      </c>
+      <c r="G36">
+        <v>5000</v>
+      </c>
+      <c r="H36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I36">
+        <v>757</v>
+      </c>
+      <c r="J36">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37">
+        <v>757</v>
+      </c>
+      <c r="G37">
+        <v>5000</v>
+      </c>
+      <c r="H37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I37">
+        <v>2130</v>
+      </c>
+      <c r="J37">
+        <v>89</v>
+      </c>
+      <c r="K37" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>